--- a/web/assets/template/order_template.xlsx
+++ b/web/assets/template/order_template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\꽁지\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D9CC33-824B-428B-9E62-5C15D56CB92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32A380C-F0DB-451A-94F1-E446E876465E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="465" windowWidth="26820" windowHeight="15315" xr2:uid="{4357A4CE-07D3-4862-99FD-6A5B44996FF9}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26820" windowHeight="15315" xr2:uid="{4357A4CE-07D3-4862-99FD-6A5B44996FF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="상품리스트" sheetId="1" r:id="rId1"/>
+    <sheet name="주문리스트" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">상품리스트!$A$4:$Y$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">주문리스트!$A$4:$Y$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -643,7 +643,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/web/assets/template/order_template.xlsx
+++ b/web/assets/template/order_template.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\localWork\onejoylife\web\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dh\Desktop\동현\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA16D43-A66A-41D5-8511-B6962E16EFD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주문리스트" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">주문리스트!$A$4:$AM$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">주문리스트!$A$4:$BA$5</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>주문리스트</t>
   </si>
@@ -86,15 +87,9 @@
     <t>상품명</t>
   </si>
   <si>
-    <t>재품코드</t>
-  </si>
-  <si>
     <t>경품코드</t>
   </si>
   <si>
-    <t>결제금액</t>
-  </si>
-  <si>
     <t>결제방법</t>
   </si>
   <si>
@@ -249,9 +244,6 @@
   </si>
   <si>
     <t>${data.cancel_memo}</t>
-  </si>
-  <si>
-    <t>${data.payment_status}</t>
   </si>
   <si>
     <t>${data.payment_order_quantity}</t>
@@ -331,12 +323,199 @@
     <t>주문/옵션명</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급사</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>트렌드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체분류코드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${data.product_made_company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>_name}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${data.product_supplier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>_name}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${data.product_brand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>_name}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${data.product_trend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>_name}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${data.product_origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>_name}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.product_self_class_cd}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품코드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.product_model_name}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 배송비</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 쿠폰할인</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.delivery_payment}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.coupon_discount}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 결제금액</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매단가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급원가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>과세구분</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.product_payment}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${product_company_payment}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${product_user_payment}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.product_tex_class_name}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>과세율</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.product_tex}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.payment_status_name}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +578,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -420,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -445,9 +639,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -456,6 +647,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,43 +874,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="39" width="18" customWidth="1"/>
+    <col min="1" max="4" width="18" customWidth="1"/>
+    <col min="5" max="11" width="18" style="8" customWidth="1"/>
+    <col min="12" max="13" width="18" customWidth="1"/>
+    <col min="14" max="18" width="18" style="8" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="21" width="18" style="8" customWidth="1"/>
+    <col min="22" max="53" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
     </row>
-    <row r="2" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+    <row r="2" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,245 +954,329 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="N4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AO4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AP4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AT4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AU4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AW4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AX4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AY4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AZ4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="BA4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA5" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM5" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1941,9 +2262,9 @@
     <row r="999" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A4:AM5"/>
+  <autoFilter ref="A4:BA5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:V2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/web/assets/template/order_template.xlsx
+++ b/web/assets/template/order_template.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dh\Desktop\동현\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dh\Desktop\동현\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA16D43-A66A-41D5-8511-B6962E16EFD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F25F2D0-07E1-4B39-8CE6-8AB2989E0793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주문리스트" sheetId="1" r:id="rId1"/>
+    <sheet name="일괄 등록,수정 방법" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">주문리스트!$A$4:$BA$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">주문리스트!$A$4:$AU$5</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="143">
   <si>
     <t>주문리스트</t>
   </si>
@@ -102,9 +103,6 @@
     <t>사용자 ID</t>
   </si>
   <si>
-    <t>PG merchant_uid</t>
-  </si>
-  <si>
     <t>PG 결제방법</t>
   </si>
   <si>
@@ -120,33 +118,15 @@
     <t>결제일</t>
   </si>
   <si>
-    <t>환불계좌 은행명</t>
-  </si>
-  <si>
-    <t>환불계좌 번호</t>
-  </si>
-  <si>
-    <t>환불계좌 예금주</t>
-  </si>
-  <si>
-    <t>취소사유</t>
-  </si>
-  <si>
     <t>결제상태</t>
   </si>
   <si>
     <t>주문수량</t>
   </si>
   <si>
-    <t>비밀번호</t>
-  </si>
-  <si>
     <t>통관고유번호</t>
   </si>
   <si>
-    <t>경품 수령 시 세금신고용도</t>
-  </si>
-  <si>
     <t>주문자이름</t>
   </si>
   <si>
@@ -216,9 +196,6 @@
     <t>${data.payment_user_id}</t>
   </si>
   <si>
-    <t>${data.merchant_uid}</t>
-  </si>
-  <si>
     <t>${data.pay_method}</t>
   </si>
   <si>
@@ -234,18 +211,6 @@
     <t>${data.reg_date}</t>
   </si>
   <si>
-    <t>${data.bank_name}</t>
-  </si>
-  <si>
-    <t>${data.account_number}</t>
-  </si>
-  <si>
-    <t>${data.account_holder}</t>
-  </si>
-  <si>
-    <t>${data.cancel_memo}</t>
-  </si>
-  <si>
     <t>${data.payment_order_quantity}</t>
   </si>
   <si>
@@ -253,9 +218,6 @@
   </si>
   <si>
     <t>${data.customs_clearance_number}</t>
-  </si>
-  <si>
-    <t>${data.reg_no}</t>
   </si>
   <si>
     <t>${data.order_user_name}</t>
@@ -510,12 +472,161 @@
     <t>${data.payment_status_name}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>주문번호 열(B열)에 값이있으면 수정, 값이없으면 등록입니다.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원 비밀번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_cd</t>
+  </si>
+  <si>
+    <t>order_no</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_order_name</t>
+  </si>
+  <si>
+    <t>product_model_name</t>
+  </si>
+  <si>
+    <t>product_made_company_name</t>
+  </si>
+  <si>
+    <t>product_supplier_name</t>
+  </si>
+  <si>
+    <t>product_brand_name</t>
+  </si>
+  <si>
+    <t>product_trend_name</t>
+  </si>
+  <si>
+    <t>product_origin_name</t>
+  </si>
+  <si>
+    <t>product_self_class_cd</t>
+  </si>
+  <si>
+    <t>product_cd</t>
+  </si>
+  <si>
+    <t>giveaway_cd</t>
+  </si>
+  <si>
+    <t>product_user_payment</t>
+  </si>
+  <si>
+    <t>product_company_payment</t>
+  </si>
+  <si>
+    <t>product_payment</t>
+  </si>
+  <si>
+    <t>product_tex_class_name</t>
+  </si>
+  <si>
+    <t>product_tex</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>delivery_payment</t>
+  </si>
+  <si>
+    <t>coupon_discount</t>
+  </si>
+  <si>
+    <t>payment_type_cd</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>imp_uid</t>
+  </si>
+  <si>
+    <t>payment_user_id</t>
+  </si>
+  <si>
+    <t>pay_method</t>
+  </si>
+  <si>
+    <t>pg_provider</t>
+  </si>
+  <si>
+    <t>pg_type</t>
+  </si>
+  <si>
+    <t>error_msg</t>
+  </si>
+  <si>
+    <t>reg_date</t>
+  </si>
+  <si>
+    <t>payment_status_name</t>
+  </si>
+  <si>
+    <t>payment_order_quantity</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>customs_clearance_number</t>
+  </si>
+  <si>
+    <t>order_user_name</t>
+  </si>
+  <si>
+    <t>order_user_phone</t>
+  </si>
+  <si>
+    <t>delivery_type</t>
+  </si>
+  <si>
+    <t>delivery_user_name</t>
+  </si>
+  <si>
+    <t>delivery_user_phone</t>
+  </si>
+  <si>
+    <t>delivery_user_tel</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>roadAddress</t>
+  </si>
+  <si>
+    <t>extraAddress</t>
+  </si>
+  <si>
+    <t>jibunAddress</t>
+  </si>
+  <si>
+    <t>delivery_message</t>
+  </si>
+  <si>
+    <t>delivery_hope_date</t>
+  </si>
+  <si>
+    <t>delivery_hope_time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +704,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -614,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -648,9 +772,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -659,6 +780,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,11 +1008,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA1000"/>
+  <dimension ref="A1:AU1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -890,61 +1023,228 @@
     <col min="14" max="18" width="18" style="8" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
     <col min="20" max="21" width="18" style="8" customWidth="1"/>
-    <col min="22" max="53" width="18" customWidth="1"/>
+    <col min="22" max="47" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
     </row>
-    <row r="2" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
+    <row r="2" spans="1:47" s="14" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM2" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ2" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS2" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU2" s="14" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+    </row>
+    <row r="4" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -955,58 +1255,58 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="T4" s="14" t="s">
+      <c r="N4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="U4" s="13" t="s">
-        <v>92</v>
+      <c r="S4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>5</v>
@@ -1041,242 +1341,206 @@
       <c r="AF4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AG4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AN4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AO4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AP4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AR4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AS4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AT4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AU4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AW4" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AX4" s="4" t="s">
+      <c r="D5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AY4" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AZ4" s="4" t="s">
+      <c r="N5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="BA4" s="4" t="s">
+      <c r="T5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="V5" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="W5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU5" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ5" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AX5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AZ5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA5" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2262,13 +2526,38 @@
     <row r="999" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A4:BA5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:AU5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0375275E-AE92-4DF8-AA3B-5613ADA6C52B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/web/assets/template/order_template.xlsx
+++ b/web/assets/template/order_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dh\Desktop\동현\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F25F2D0-07E1-4B39-8CE6-8AB2989E0793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420AB70B-D924-48B8-B017-AC9B8A3BB2E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="일괄 등록,수정 방법" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">주문리스트!$A$4:$AU$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">주문리스트!$A$4:$AW$4</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>주문리스트</t>
   </si>
@@ -88,12 +88,6 @@
     <t>상품명</t>
   </si>
   <si>
-    <t>경품코드</t>
-  </si>
-  <si>
-    <t>결제방법</t>
-  </si>
-  <si>
     <t>PG 결제성공여부</t>
   </si>
   <si>
@@ -133,15 +127,9 @@
     <t>주문자 전화번호</t>
   </si>
   <si>
-    <t>배송방법</t>
-  </si>
-  <si>
     <t>배송 수취인 이름</t>
   </si>
   <si>
-    <t>결제상태배송 수취인 핸드폰</t>
-  </si>
-  <si>
     <t>배송 수취인 전화번호</t>
   </si>
   <si>
@@ -178,15 +166,9 @@
     <t>${data.product_cd}</t>
   </si>
   <si>
-    <t>${data.giveaway_cd}</t>
-  </si>
-  <si>
     <t>${data.payment}</t>
   </si>
   <si>
-    <t>${data.payment_type_cd}</t>
-  </si>
-  <si>
     <t>${data.success}</t>
   </si>
   <si>
@@ -196,9 +178,6 @@
     <t>${data.payment_user_id}</t>
   </si>
   <si>
-    <t>${data.pay_method}</t>
-  </si>
-  <si>
     <t>${data.pg_provider}</t>
   </si>
   <si>
@@ -224,9 +203,6 @@
   </si>
   <si>
     <t>${data.order_user_phone}</t>
-  </si>
-  <si>
-    <t>${data.delivery_type}</t>
   </si>
   <si>
     <t>${data.delivery_user_name}</t>
@@ -473,10 +449,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>주문번호 열(B열)에 값이있으면 수정, 값이없으면 등록입니다.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>비회원 비밀번호</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -517,9 +489,6 @@
     <t>product_cd</t>
   </si>
   <si>
-    <t>giveaway_cd</t>
-  </si>
-  <si>
     <t>product_user_payment</t>
   </si>
   <si>
@@ -544,9 +513,6 @@
     <t>coupon_discount</t>
   </si>
   <si>
-    <t>payment_type_cd</t>
-  </si>
-  <si>
     <t>success</t>
   </si>
   <si>
@@ -556,9 +522,6 @@
     <t>payment_user_id</t>
   </si>
   <si>
-    <t>pay_method</t>
-  </si>
-  <si>
     <t>pg_provider</t>
   </si>
   <si>
@@ -589,9 +552,6 @@
     <t>order_user_phone</t>
   </si>
   <si>
-    <t>delivery_type</t>
-  </si>
-  <si>
     <t>delivery_user_name</t>
   </si>
   <si>
@@ -620,13 +580,1983 @@
   </si>
   <si>
     <t>delivery_hope_time</t>
+  </si>
+  <si>
+    <t>택배사</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>송장번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.delivery_t_code}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.delivery_t_invoice}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제상태코드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.payment_status}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_status</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_t_code</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_t_invoice</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배사코드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.delivery_t_code_name}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_t_code_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>배송중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: R</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>결제취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>결제완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: W</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>배송준비중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>교환신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>반품신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>교환완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: S</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>반품완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>미결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>상품준비중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>배송완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: O</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>교환거절</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>반품거절</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: J</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>결제상태</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 코드</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수취인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>핸드폰</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>택배사</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 코드</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호 열(B열)에 값이있어야 수정됩니다.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.pay_method_name}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_method_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한통운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>한진택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>롯데택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 08</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>우체국택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>로젠택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 06</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>일양로지스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 11</t>
+    </r>
+  </si>
+  <si>
+    <t>EMS: 12</t>
+  </si>
+  <si>
+    <t>DHL: 13</t>
+  </si>
+  <si>
+    <r>
+      <t>한덱스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 20</t>
+    </r>
+  </si>
+  <si>
+    <t>FedEx: 21</t>
+  </si>
+  <si>
+    <t>UPS: 14</t>
+  </si>
+  <si>
+    <t>USPS: 26</t>
+  </si>
+  <si>
+    <r>
+      <t>대신택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경동택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>합동택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CU </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편의점택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CVSnet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편의점택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 24</t>
+    </r>
+  </si>
+  <si>
+    <t>TNT Express: 25</t>
+  </si>
+  <si>
+    <r>
+      <t>한의사랑택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>천일택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>건영택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 18</t>
+    </r>
+  </si>
+  <si>
+    <t>GSMNtoN: 28</t>
+  </si>
+  <si>
+    <r>
+      <t>에어보이익스프레스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KGL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네트웍스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 30</t>
+    </r>
+  </si>
+  <si>
+    <t>DHL Global Mail: 33</t>
+  </si>
+  <si>
+    <t>i-Parcel: 34</t>
+  </si>
+  <si>
+    <r>
+      <t>판토스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 37</t>
+    </r>
+  </si>
+  <si>
+    <t>ECMS Express: 38</t>
+  </si>
+  <si>
+    <r>
+      <t>굿투럭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 40</t>
+    </r>
+  </si>
+  <si>
+    <t>GSI Express: 41</t>
+  </si>
+  <si>
+    <r>
+      <t>CJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한통운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>국제특송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 42</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>애니트랙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SLX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>호남택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>우리한방택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 47</t>
+    </r>
+  </si>
+  <si>
+    <t>ACI Express: 48</t>
+  </si>
+  <si>
+    <t>ACE Express: 49</t>
+  </si>
+  <si>
+    <t>GPS Logix: 50</t>
+  </si>
+  <si>
+    <r>
+      <t>성원글로벌카고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 51</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>세방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 52</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>농협택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 53</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>홈픽택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 54</t>
+    </r>
+  </si>
+  <si>
+    <t>EuroParcel: 55</t>
+  </si>
+  <si>
+    <r>
+      <t>KGB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 56</t>
+    </r>
+  </si>
+  <si>
+    <t>Cway Express: 57</t>
+  </si>
+  <si>
+    <r>
+      <t>하이택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 58</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>지오로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>YJS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글로벌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영국</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>): 60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>워펙스코리아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 61</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홈이노베이션로지스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 62</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>은하쉬핑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 63</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FLF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼레버택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>YJS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글로벌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>): 65</t>
+    </r>
+  </si>
+  <si>
+    <t>Giant Network Group: 66</t>
+  </si>
+  <si>
+    <r>
+      <t>디디로지스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 67</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>우리동네택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 68</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>대림통운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 69</t>
+    </r>
+  </si>
+  <si>
+    <t>LOTOS CORPORATION: 70</t>
+  </si>
+  <si>
+    <r>
+      <t>IK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 71</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>성훈물류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 72</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로지텍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 73</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>용마로지스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 74</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>원더스퀵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 75</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>대운글로벌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 76</t>
+    </r>
+  </si>
+  <si>
+    <t>LineExpress: 77</t>
+  </si>
+  <si>
+    <t>2FastExpress: 78</t>
+  </si>
+  <si>
+    <r>
+      <t>티피엠코리아㈜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용달이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 79</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>엘서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>제니엘시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 81</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>프레시솔루션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 82</t>
+    </r>
+  </si>
+  <si>
+    <t>JLOGIST: 83</t>
+  </si>
+  <si>
+    <r>
+      <t>스마트로지스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 84</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>풀앳홈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 85</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>삼성전자물류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 86</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>이투마스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(ETOMARS): 87</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>큐런택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>롯데택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해외특송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: 99</t>
+    </r>
+  </si>
+  <si>
+    <t>배송등록일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.delivery_start_date}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_start_date</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">결제상태코드, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문자이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수취인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수취인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>핸드폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수취인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우편번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도로명주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지번주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메세지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>희망날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송희망시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송등록일,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>택배사코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>송장번호</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,6 +2647,77 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -726,7 +2727,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -734,16 +2735,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,35 +2764,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -787,11 +2773,71 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,539 +3054,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU1000"/>
+  <dimension ref="A1:AW1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="18" customWidth="1"/>
-    <col min="5" max="11" width="18" style="8" customWidth="1"/>
-    <col min="12" max="13" width="18" customWidth="1"/>
-    <col min="14" max="18" width="18" style="8" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="21" width="18" style="8" customWidth="1"/>
-    <col min="22" max="47" width="18" customWidth="1"/>
+    <col min="1" max="47" width="18" style="11" customWidth="1"/>
+    <col min="48" max="48" width="11.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="12.625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:49" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-    </row>
-    <row r="2" spans="1:47" s="14" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:49" s="13" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="K2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="L2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="M2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="N2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="O2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="P2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="Q2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="R2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="S2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="T2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="U2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="V2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="W2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="X2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Z2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="AA2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="AB2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="AC2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="AE2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="AF2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="AG2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="AH2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="AI2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AK2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AL2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AM2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AN2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AO2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AP2" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AR2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AS2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AT2" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK4" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT4" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU4" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV4" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AW4" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="AK2" s="14" t="s">
+    </row>
+    <row r="5" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD5" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG5" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ5" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT5" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU5" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AL2" s="14" t="s">
+      <c r="AV5" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW5" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="AM2" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO2" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP2" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ2" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR2" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS2" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT2" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU2" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-    </row>
-    <row r="4" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG4" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU5" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="6" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2526,7 +4528,7 @@
     <row r="999" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A4:AU5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:AW4" xr:uid="{9E7BC02B-2A7A-4BCE-8606-C96C33D00BB5}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2539,21 +4541,520 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0375275E-AE92-4DF8-AA3B-5613ADA6C52B}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
